--- a/data/bkp/config.xlsx
+++ b/data/bkp/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/wellnes_by_SportsDataCampus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32098BC7-2642-7345-9C7B-05A6D45E0559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3417A9-A837-C946-9DC2-83B4FA4F4B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1900" windowWidth="25640" windowHeight="18040" activeTab="11" xr2:uid="{CE883445-8F5D-6B46-AEAF-F71E38B68F99}"/>
+    <workbookView xWindow="4920" yWindow="1900" windowWidth="25640" windowHeight="18040" firstSheet="5" activeTab="15" xr2:uid="{CE883445-8F5D-6B46-AEAF-F71E38B68F99}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>Birth</t>
   </si>
   <si>
-    <t>Ege</t>
-  </si>
-  <si>
     <t>Nationality</t>
   </si>
   <si>
@@ -849,6 +846,9 @@
   </si>
   <si>
     <t>BodyPart</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1106,19 +1106,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1127,27 +1125,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1225,6 +1202,27 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1251,7 +1249,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{8B68212D-0602-6146-80F8-DBEFB3CD71C2}" name="Table1814" displayName="Table1814" ref="A1:D46" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{8B68212D-0602-6146-80F8-DBEFB3CD71C2}" name="Table1814" displayName="Table1814" ref="A1:D46" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:D46" xr:uid="{8B68212D-0602-6146-80F8-DBEFB3CD71C2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{09998947-1E53-334B-B644-426D9949D6DB}" name="Id"/>
@@ -1264,7 +1262,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{93A89BA9-D94A-3042-A9A9-7C6FF5F68432}" name="Table15" displayName="Table15" ref="A1:C4" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{93A89BA9-D94A-3042-A9A9-7C6FF5F68432}" name="Table15" displayName="Table15" ref="A1:C4" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:C4" xr:uid="{93A89BA9-D94A-3042-A9A9-7C6FF5F68432}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{99E28666-CF79-DA46-A721-01DAB93A63DC}" name="Id"/>
@@ -1276,11 +1274,11 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D62F10F5-5CBD-D943-9518-0E1D27EF063A}" name="Table16" displayName="Table16" ref="A1:C10" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D62F10F5-5CBD-D943-9518-0E1D27EF063A}" name="Table16" displayName="Table16" ref="A1:C10" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:C10" xr:uid="{D62F10F5-5CBD-D943-9518-0E1D27EF063A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5F2B7CA7-C67F-6341-97EF-30C9B3C68C60}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{0CFE9ADA-94C9-CC4C-9C74-4EAEE4FE3F2A}" name="Value" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0CFE9ADA-94C9-CC4C-9C74-4EAEE4FE3F2A}" name="Value" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{21685BF9-F28A-B542-A177-DA01D24D9EFC}" name="Abbreviation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1288,19 +1286,19 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CA020861-9B03-BB49-ACBB-666C3653505E}" name="Table17" displayName="Table17" ref="A1:C9" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CA020861-9B03-BB49-ACBB-666C3653505E}" name="Table17" displayName="Table17" ref="A1:C9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:C9" xr:uid="{CA020861-9B03-BB49-ACBB-666C3653505E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{162CE6BA-A275-524F-B30A-FC9B9C9DF1FB}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{24E6906C-10BB-404A-99D2-C8256070ADE8}" name="Value" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9985531C-CEBD-6C46-91F8-791DDE7E74E1}" name="Abbreviation" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{24E6906C-10BB-404A-99D2-C8256070ADE8}" name="Value" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9985531C-CEBD-6C46-91F8-791DDE7E74E1}" name="Abbreviation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8D5791CD-8850-E74C-947C-1A6514755C12}" name="Table139" displayName="Table139" ref="A1:B3" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8D5791CD-8850-E74C-947C-1A6514755C12}" name="Table139" displayName="Table139" ref="A1:B3" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:B3" xr:uid="{8D5791CD-8850-E74C-947C-1A6514755C12}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6CCFD50D-076E-9948-908C-ABFA5CAB4033}" name="Id"/>
@@ -1311,7 +1309,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{26B42361-0788-994C-99EF-EDC259FDF8D5}" name="Table18" displayName="Table18" ref="A1:C13" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{26B42361-0788-994C-99EF-EDC259FDF8D5}" name="Table18" displayName="Table18" ref="A1:C13" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:C13" xr:uid="{26B42361-0788-994C-99EF-EDC259FDF8D5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A2D56BFD-DBBA-3042-878A-718A7BF990FC}" name="Id"/>
@@ -1323,7 +1321,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA41EEE2-A2E9-FC48-9EB1-1E136EA64B4A}" name="Table13" displayName="Table13" ref="A1:C8" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA41EEE2-A2E9-FC48-9EB1-1E136EA64B4A}" name="Table13" displayName="Table13" ref="A1:C8" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:C8" xr:uid="{CA41EEE2-A2E9-FC48-9EB1-1E136EA64B4A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8BE8AF4B-1C57-2041-A357-EE2FE015E68A}" name="Id"/>
@@ -1335,7 +1333,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52293BD4-F851-234C-B47D-3BB22703FD61}" name="Table14" displayName="Table14" ref="A1:C5" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52293BD4-F851-234C-B47D-3BB22703FD61}" name="Table14" displayName="Table14" ref="A1:C5" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:C5" xr:uid="{52293BD4-F851-234C-B47D-3BB22703FD61}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9549A075-8496-1E47-8D4F-2E7E1FA73078}" name="Id"/>
@@ -1347,7 +1345,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AE138D86-DB49-C840-9C18-9062B079C422}" name="Table1810" displayName="Table1810" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AE138D86-DB49-C840-9C18-9062B079C422}" name="Table1810" displayName="Table1810" ref="A1:C5" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:C5" xr:uid="{AE138D86-DB49-C840-9C18-9062B079C422}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{708042C5-051C-B24E-98F9-656F2A8AE190}" name="Id"/>
@@ -1359,7 +1357,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8B599FA6-34DD-9E43-A396-38EA23D218E6}" name="Table1811" displayName="Table1811" ref="A1:C8" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8B599FA6-34DD-9E43-A396-38EA23D218E6}" name="Table1811" displayName="Table1811" ref="A1:C8" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:C8" xr:uid="{8B599FA6-34DD-9E43-A396-38EA23D218E6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{077A1BC5-AF32-0A47-8702-3D642212DAF0}" name="Id"/>
@@ -1371,7 +1369,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{345C7463-ACCF-1944-8525-7A4CB9118E6A}" name="Table1812" displayName="Table1812" ref="A1:C5" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{345C7463-ACCF-1944-8525-7A4CB9118E6A}" name="Table1812" displayName="Table1812" ref="A1:C5" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:C5" xr:uid="{345C7463-ACCF-1944-8525-7A4CB9118E6A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F0F3C19F-C1B6-BE41-A2E3-09C38C4AD270}" name="Id"/>
@@ -1383,7 +1381,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A62D3D1E-CC4B-9C42-85CD-E68FB0B3236B}" name="Table1813" displayName="Table1813" ref="A1:C5" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A62D3D1E-CC4B-9C42-85CD-E68FB0B3236B}" name="Table1813" displayName="Table1813" ref="A1:C5" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:C5" xr:uid="{A62D3D1E-CC4B-9C42-85CD-E68FB0B3236B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1544499F-CD5E-A140-B5C5-9219C15E1BA0}" name="Id"/>
@@ -1790,46 +1788,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1863,46 +1861,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D9781E-65D9-C843-88FF-86E481F95AFA}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1928,13 +1926,13 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>180</v>
+      <c r="D1" s="27" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1942,13 +1940,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1956,13 +1954,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1970,13 +1968,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1984,13 +1982,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1998,13 +1996,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2012,13 +2010,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2026,13 +2024,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2040,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2054,13 +2052,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2068,13 +2066,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2082,13 +2080,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>183</v>
+        <v>227</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2096,13 +2094,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>183</v>
+        <v>227</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2110,13 +2108,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>183</v>
+        <v>227</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2124,13 +2122,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>183</v>
+        <v>227</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2138,13 +2136,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>183</v>
+        <v>227</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2152,13 +2150,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>184</v>
+        <v>227</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2166,13 +2164,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>184</v>
+        <v>227</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2180,13 +2178,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>184</v>
+        <v>227</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,13 +2192,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>184</v>
+        <v>227</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2208,13 +2206,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>184</v>
+        <v>227</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2222,13 +2220,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>185</v>
+        <v>227</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2236,13 +2234,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>185</v>
+        <v>227</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2250,13 +2248,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>185</v>
+        <v>227</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,13 +2262,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>185</v>
+        <v>227</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2278,13 +2276,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>185</v>
+        <v>227</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2292,13 +2290,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>186</v>
+        <v>227</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2306,13 +2304,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>186</v>
+        <v>227</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2320,13 +2318,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>186</v>
+        <v>227</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2334,13 +2332,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>186</v>
+        <v>227</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2348,13 +2346,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>186</v>
+        <v>227</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2362,169 +2360,164 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>35</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>36</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="28"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="28"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="C43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="20">
         <v>44</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="20">
         <v>45</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2623,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2634,10 +2627,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,10 +2649,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,10 +2671,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,10 +2682,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2700,10 +2693,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2711,10 +2704,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2846,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3912E8-5E4D-0547-89BD-B4BF09135BB7}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2879,37 +2872,37 @@
         <v>55</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -2917,29 +2910,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="G2" s="16">
         <v>33849</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" ref="H2:H3" ca="1" si="0">DAYS360(G2,TODAY())/365</f>
-        <v>30.997260273972604</v>
+        <v>31</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="15">
         <v>65</v>
@@ -2948,23 +2941,23 @@
         <v>170</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N2" s="15">
         <v>23</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15">
         <v>1</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -2972,29 +2965,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="16">
         <v>31701</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>36.794520547945204</v>
+        <v>36.797260273972604</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="15">
         <v>55</v>
@@ -3003,23 +2996,23 @@
         <v>165</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N3" s="15">
         <v>1</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15">
         <v>2</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -3027,29 +3020,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="16">
         <v>34460</v>
       </c>
       <c r="H4" s="17">
         <f ca="1">DAYS360(G4,TODAY())/365</f>
-        <v>29.342465753424658</v>
+        <v>29.345205479452055</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="15">
         <v>60</v>
@@ -3058,23 +3051,23 @@
         <v>161</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N4" s="15">
         <v>28</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15">
         <v>3</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -3082,29 +3075,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="F5" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="16">
         <v>32185</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ref="H5:H26" ca="1" si="1">DAYS360(G5,TODAY())/365</f>
-        <v>35.490410958904107</v>
+        <v>35.493150684931507</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="15">
         <v>65</v>
@@ -3113,7 +3106,7 @@
         <v>150</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>16</v>
@@ -3122,14 +3115,14 @@
         <v>19</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15">
         <v>4</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -3137,29 +3130,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="16">
         <v>35912</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>25.421917808219177</v>
+        <v>25.424657534246574</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="15">
         <v>35</v>
@@ -3168,7 +3161,7 @@
         <v>135</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>16</v>
@@ -3177,14 +3170,14 @@
         <v>13</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15">
         <v>5</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -3192,29 +3185,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="16">
         <v>35891</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>25.479452054794521</v>
+        <v>25.482191780821918</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="15">
         <v>30</v>
@@ -3223,7 +3216,7 @@
         <v>125</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>17</v>
@@ -3232,14 +3225,14 @@
         <v>26</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15">
         <v>6</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -3247,29 +3240,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="F8" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="16">
         <v>33416</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>32.161643835616438</v>
+        <v>32.164383561643838</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="15">
         <v>45</v>
@@ -3278,7 +3271,7 @@
         <v>145</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>18</v>
@@ -3287,14 +3280,14 @@
         <v>6</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15">
         <v>7</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -3302,29 +3295,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="F9" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="16">
         <v>33539</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>31.830136986301369</v>
+        <v>31.832876712328765</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" s="15">
         <v>90</v>
@@ -3333,7 +3326,7 @@
         <v>190</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>17</v>
@@ -3342,14 +3335,14 @@
         <v>8</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15">
         <v>8</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -3357,29 +3350,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="16">
         <v>33847</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>31.002739726027396</v>
+        <v>31.005479452054793</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="15">
         <v>65</v>
@@ -3388,7 +3381,7 @@
         <v>175</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>17</v>
@@ -3397,14 +3390,14 @@
         <v>3</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="15">
         <v>9</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -3412,29 +3405,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="16">
         <v>35813</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>25.693150684931506</v>
+        <v>25.695890410958903</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="15">
         <v>76</v>
@@ -3443,7 +3436,7 @@
         <v>118</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M11" s="15" t="s">
         <v>16</v>
@@ -3452,14 +3445,14 @@
         <v>25</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15">
         <v>10</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -3467,29 +3460,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="F12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="16">
         <v>35431</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>26.726027397260275</v>
+        <v>26.728767123287671</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="15">
         <v>45</v>
@@ -3498,7 +3491,7 @@
         <v>150</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>17</v>
@@ -3507,14 +3500,14 @@
         <v>4</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P12" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P12" s="26"/>
       <c r="Q12" s="15">
         <v>11</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -3522,29 +3515,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>112</v>
-      </c>
       <c r="F13" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="16">
         <v>34478</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>29.293150684931508</v>
+        <v>29.295890410958904</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="15">
         <v>60</v>
@@ -3553,7 +3546,7 @@
         <v>155</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>18</v>
@@ -3562,14 +3555,14 @@
         <v>7</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P13" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P13" s="26"/>
       <c r="Q13" s="15">
         <v>12</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -3577,29 +3570,29 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="F14" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="16">
         <v>34436</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>29.408219178082192</v>
+        <v>29.410958904109588</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="15">
         <v>90</v>
@@ -3608,7 +3601,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>18</v>
@@ -3617,14 +3610,14 @@
         <v>18</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P14" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P14" s="26"/>
       <c r="Q14" s="15">
         <v>13</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -3632,29 +3625,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>119</v>
-      </c>
       <c r="F15" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="16">
         <v>36073</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>24.989041095890411</v>
+        <v>24.991780821917807</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="15">
         <v>65</v>
@@ -3663,7 +3656,7 @@
         <v>170</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>19</v>
@@ -3672,14 +3665,14 @@
         <v>14</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P15" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P15" s="26"/>
       <c r="Q15" s="15">
         <v>14</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -3687,29 +3680,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="F16" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="16">
         <v>35164</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>27.443835616438356</v>
+        <v>27.446575342465753</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="15">
         <v>55</v>
@@ -3718,7 +3711,7 @@
         <v>165</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>19</v>
@@ -3727,14 +3720,14 @@
         <v>20</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="15">
         <v>15</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -3742,29 +3735,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="F17" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="16">
         <v>35974</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>25.254794520547946</v>
+        <v>25.257534246575343</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="15">
         <v>60</v>
@@ -3773,7 +3766,7 @@
         <v>161</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>20</v>
@@ -3782,14 +3775,14 @@
         <v>17</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="15">
         <v>16</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -3797,29 +3790,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>130</v>
-      </c>
       <c r="F18" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="16">
         <v>34514</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>29.197260273972603</v>
+        <v>29.2</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="15">
         <v>65</v>
@@ -3828,7 +3821,7 @@
         <v>150</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>18</v>
@@ -3837,14 +3830,14 @@
         <v>5</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P18" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P18" s="26"/>
       <c r="Q18" s="15">
         <v>17</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -3852,29 +3845,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="F19" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="16">
         <v>31952</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>36.115068493150687</v>
+        <v>36.11780821917808</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J19" s="15">
         <v>35</v>
@@ -3883,7 +3876,7 @@
         <v>135</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M19" s="15" t="s">
         <v>19</v>
@@ -3892,14 +3885,14 @@
         <v>10</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="15">
         <v>18</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -3907,29 +3900,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>137</v>
-      </c>
       <c r="F20" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="16">
         <v>35664</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>26.093150684931508</v>
+        <v>26.095890410958905</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="15">
         <v>30</v>
@@ -3938,7 +3931,7 @@
         <v>125</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M20" s="15" t="s">
         <v>21</v>
@@ -3947,14 +3940,14 @@
         <v>22</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P20" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P20" s="26"/>
       <c r="Q20" s="15">
         <v>19</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -3962,29 +3955,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="F21" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="16">
         <v>36556</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>23.687671232876713</v>
+        <v>23.69041095890411</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" s="15">
         <v>45</v>
@@ -3993,7 +3986,7 @@
         <v>145</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>21</v>
@@ -4002,14 +3995,14 @@
         <v>27</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P21" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P21" s="26"/>
       <c r="Q21" s="15">
         <v>20</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -4017,29 +4010,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>145</v>
-      </c>
       <c r="F22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="16">
         <v>32187</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>35.484931506849314</v>
+        <v>35.487671232876714</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="15">
         <v>90</v>
@@ -4048,7 +4041,7 @@
         <v>190</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M22" s="15" t="s">
         <v>20</v>
@@ -4057,14 +4050,14 @@
         <v>11</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="15">
         <v>21</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -4072,29 +4065,29 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="F23" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="16">
         <v>35891</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>25.479452054794521</v>
+        <v>25.482191780821918</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="15">
         <v>65</v>
@@ -4103,7 +4096,7 @@
         <v>175</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M23" s="15" t="s">
         <v>20</v>
@@ -4112,14 +4105,14 @@
         <v>15</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="15">
         <v>22</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -4127,29 +4120,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="F24" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="16">
         <v>34767</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>28.512328767123286</v>
+        <v>28.515068493150686</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" s="15">
         <v>76</v>
@@ -4158,7 +4151,7 @@
         <v>118</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>21</v>
@@ -4167,14 +4160,14 @@
         <v>21</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P24" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P24" s="26"/>
       <c r="Q24" s="15">
         <v>23</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -4182,29 +4175,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="F25" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="16">
         <v>32188</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>35.482191780821921</v>
+        <v>35.484931506849314</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J25" s="15">
         <v>45</v>
@@ -4213,7 +4206,7 @@
         <v>150</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>19</v>
@@ -4222,14 +4215,14 @@
         <v>24</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P25" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P25" s="26"/>
       <c r="Q25" s="15">
         <v>24</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -4237,29 +4230,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>157</v>
-      </c>
       <c r="F26" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="16">
         <v>34559</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>29.076712328767123</v>
+        <v>29.079452054794519</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="15">
         <v>60</v>
@@ -4268,23 +4261,23 @@
         <v>155</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="M26" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="N26" s="15">
         <v>16</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="P26" s="27"/>
+        <v>261</v>
+      </c>
+      <c r="P26" s="26"/>
       <c r="Q26" s="15">
         <v>25</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4308,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4323,7 +4316,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -4363,98 +4356,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4491,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -4502,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4513,7 +4506,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -4524,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -4535,7 +4528,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -4546,7 +4539,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -4557,7 +4550,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -4597,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4608,10 +4601,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4630,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -4655,10 +4648,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -4666,25 +4659,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>69</v>
+      <c r="B3" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4800,46 +4793,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4876,79 +4869,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
